--- a/biology/Médecine/European_AIDS_Clinical_Society/European_AIDS_Clinical_Society.xlsx
+++ b/biology/Médecine/European_AIDS_Clinical_Society/European_AIDS_Clinical_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'European AIDS Clinical Society (EACS) est une organisation à but non lucratif. Fondée en 1991, l'EACS a pour mission déclarée de promouvoir des soins de qualité, la recherche et l'éducation sur le VIH et les infections associées en vue de réduire son poids sur l'Europe[1].
-Le président actuel de l'EACS est Sanjay Bhagani, élu en 2020[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'European AIDS Clinical Society (EACS) est une organisation à but non lucratif. Fondée en 1991, l'EACS a pour mission déclarée de promouvoir des soins de qualité, la recherche et l'éducation sur le VIH et les infections associées en vue de réduire son poids sur l'Europe.
+Le président actuel de l'EACS est Sanjay Bhagani, élu en 2020,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Conférence européenne sur le sida</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'EACS organise la Conférence européenne sur le SIDA qui se tient tous les deux ans[4] et rassemble des scientifiques de toute l'Europe pour échanger les dernières informations concernant le VIH/SIDA[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'EACS organise la Conférence européenne sur le SIDA qui se tient tous les deux ans et rassemble des scientifiques de toute l'Europe pour échanger les dernières informations concernant le VIH/SIDA.
 </t>
         </is>
       </c>
